--- a/fw-ig/core-ig-r401/branch/dev/StructureDefinition-additional-variant-identifier.xlsx
+++ b/fw-ig/core-ig-r401/branch/dev/StructureDefinition-additional-variant-identifier.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-17T05:24:31+00:00</t>
+    <t>2022-09-17T15:08:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
